--- a/data/trans_camb/P38B-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Clase-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 1,19</t>
+          <t>-7,94; 1,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 1,03</t>
+          <t>-8,27; 1,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 4,92</t>
+          <t>-4,39; 5,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 3,55</t>
+          <t>-5,45; 3,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 1,84</t>
+          <t>-5,14; 1,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 0,89</t>
+          <t>-5,66; 1,21</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 1,36</t>
+          <t>-8,68; 1,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 1,15</t>
+          <t>-9,06; 1,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 5,59</t>
+          <t>-4,67; 5,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 4,06</t>
+          <t>-5,8; 3,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 2,06</t>
+          <t>-5,64; 1,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 1,02</t>
+          <t>-6,23; 1,38</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 1,68</t>
+          <t>-7,74; 1,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 0,36</t>
+          <t>-8,51; 0,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 2,36</t>
+          <t>-7,43; 2,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 1,82</t>
+          <t>-7,38; 1,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 0,49</t>
+          <t>-6,39; 0,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,33; -0,17</t>
+          <t>-6,86; -0,29</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 1,95</t>
+          <t>-8,44; 1,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 0,41</t>
+          <t>-9,23; 0,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 2,69</t>
+          <t>-8,01; 2,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 2,06</t>
+          <t>-8,0; 2,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 0,56</t>
+          <t>-6,96; 0,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,97; -0,21</t>
+          <t>-7,44; -0,36</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 6,08</t>
+          <t>-1,99; 6,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-61,72; 4,66</t>
+          <t>-65,21; 4,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 3,41</t>
+          <t>-8,75; 3,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 5,51</t>
+          <t>-4,13; 6,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 4,38</t>
+          <t>-3,18; 4,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-60,07; 3,5</t>
+          <t>-59,49; 3,47</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 7,43</t>
+          <t>-2,31; 8,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-73,07; 5,52</t>
+          <t>-76,84; 4,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 3,87</t>
+          <t>-9,29; 4,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 6,18</t>
+          <t>-4,39; 6,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 5,1</t>
+          <t>-3,56; 4,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-69,14; 4,06</t>
+          <t>-68,69; 4,11</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 2,62</t>
+          <t>-3,68; 2,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 1,08</t>
+          <t>-6,65; 1,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 2,48</t>
+          <t>-4,79; 2,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,07; 9,88</t>
+          <t>0,83; 10,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 1,85</t>
+          <t>-2,83; 1,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 5,25</t>
+          <t>-1,86; 5,75</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 3,12</t>
+          <t>-4,25; 3,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 1,22</t>
+          <t>-7,77; 1,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 2,91</t>
+          <t>-5,37; 2,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,2; 11,79</t>
+          <t>0,92; 12,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 2,18</t>
+          <t>-3,29; 1,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 6,25</t>
+          <t>-2,16; 6,82</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 5,36</t>
+          <t>-4,74; 5,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 5,52</t>
+          <t>-5,67; 5,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 0,56</t>
+          <t>-6,4; 0,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-27,31; 1,49</t>
+          <t>-29,34; 1,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 0,72</t>
+          <t>-4,75; 0,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 1,59</t>
+          <t>-19,21; 1,87</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 6,83</t>
+          <t>-5,77; 6,79</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 7,07</t>
+          <t>-6,92; 7,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 0,65</t>
+          <t>-6,93; 0,17</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-30,42; 1,67</t>
+          <t>-32,3; 1,83</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 0,85</t>
+          <t>-5,48; 1,14</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 1,85</t>
+          <t>-22,53; 2,15</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,37; 18,02</t>
+          <t>1,93; 18,91</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 14,04</t>
+          <t>-10,83; 13,57</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,42</t>
+          <t>-0,67; 5,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 0,14</t>
+          <t>-7,5; 0,01</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 6,18</t>
+          <t>0,66; 6,75</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 0,22</t>
+          <t>-8,5; 0,43</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0,62; 45,23</t>
+          <t>3,99; 48,88</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 35,62</t>
+          <t>-23,31; 34,88</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 6,56</t>
+          <t>-0,75; 6,44</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 0,17</t>
+          <t>-8,63; 0,06</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 8,23</t>
+          <t>0,83; 8,97</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 0,4</t>
+          <t>-11,01; 0,56</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 1,62</t>
+          <t>-2,12; 1,74</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-25,2; -0,43</t>
+          <t>-24,61; -0,57</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 1,1</t>
+          <t>-2,0; 1,09</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 1,48</t>
+          <t>-6,98; 1,69</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 0,83</t>
+          <t>-1,58; 0,81</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-13,33; -0,23</t>
+          <t>-15,2; -0,19</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 2,03</t>
+          <t>-2,55; 2,14</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-30,44; -0,57</t>
+          <t>-29,9; -0,69</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 1,26</t>
+          <t>-2,26; 1,25</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 1,7</t>
+          <t>-7,92; 1,92</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 0,98</t>
+          <t>-1,85; 0,96</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-15,75; -0,26</t>
+          <t>-17,78; -0,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38B-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P38B-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
